--- a/requirements/BugTracking.xlsx
+++ b/requirements/BugTracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Gena\Local\Work\_Drive\Projects\Verum\EasyBudget\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nikita\Git\EasyBudget\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCCA784-FD54-4036-8498-020C0A81E480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF38E758-EE7A-4861-A60B-D234E5A19C38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{07F58553-A4A0-4277-86D4-14AF11B81E43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07F58553-A4A0-4277-86D4-14AF11B81E43}"/>
   </bookViews>
   <sheets>
     <sheet name="Bugs" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="25">
   <si>
     <t>Bug</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Add info panel (probably on the top)</t>
+  </si>
+  <si>
+    <t>Localization file added in common</t>
+  </si>
+  <si>
+    <t>Added button at the bottom of entity page</t>
   </si>
 </sst>
 </file>
@@ -456,7 +462,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,13 +502,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="1">
         <v>44158</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -513,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -530,7 +539,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -581,13 +590,16 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="1">
         <v>44158</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/requirements/BugTracking.xlsx
+++ b/requirements/BugTracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nikita\Git\EasyBudget\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF38E758-EE7A-4861-A60B-D234E5A19C38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4437672D-5CB3-4927-9067-336D6E406EC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07F58553-A4A0-4277-86D4-14AF11B81E43}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +539,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -573,7 +573,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -644,7 +644,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>

--- a/requirements/BugTracking.xlsx
+++ b/requirements/BugTracking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nikita\Git\EasyBudget\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4437672D-5CB3-4927-9067-336D6E406EC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D178E7FF-A97D-49B2-8450-20A66C8DCE43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07F58553-A4A0-4277-86D4-14AF11B81E43}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +644,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>

--- a/requirements/BugTracking.xlsx
+++ b/requirements/BugTracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nikita\Git\EasyBudget\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D178E7FF-A97D-49B2-8450-20A66C8DCE43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431F1DF7-8D3B-4503-B50F-1A16AE74DC0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07F58553-A4A0-4277-86D4-14AF11B81E43}"/>
   </bookViews>
@@ -644,7 +644,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>

--- a/requirements/BugTracking.xlsx
+++ b/requirements/BugTracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nikita\Git\EasyBudget\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431F1DF7-8D3B-4503-B50F-1A16AE74DC0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DB130F-E5B3-4E74-8599-AAB0B2A17715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07F58553-A4A0-4277-86D4-14AF11B81E43}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +556,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -644,7 +644,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>

--- a/requirements/BugTracking.xlsx
+++ b/requirements/BugTracking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nikita\Git\EasyBudget\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DB130F-E5B3-4E74-8599-AAB0B2A17715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D4E4B4-D3F9-4C32-92D7-BE202CAF10DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07F58553-A4A0-4277-86D4-14AF11B81E43}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="32">
   <si>
     <t>Bug</t>
   </si>
@@ -106,6 +106,27 @@
   </si>
   <si>
     <t>Added button at the bottom of entity page</t>
+  </si>
+  <si>
+    <t>Approver doesn't appear on item page after approve</t>
+  </si>
+  <si>
+    <t>Executor doesn't appear on itempage after approving</t>
+  </si>
+  <si>
+    <t>Executor can not change price field after approving</t>
+  </si>
+  <si>
+    <t>Add postponed button for director and fin director</t>
+  </si>
+  <si>
+    <t>Add declined button for director and approver</t>
+  </si>
+  <si>
+    <t>Add comments on item page</t>
+  </si>
+  <si>
+    <t>FinDirector can not change execution deadline date field after approving</t>
   </si>
 </sst>
 </file>
@@ -462,7 +483,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,80 +678,122 @@
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44209</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44209</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44209</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44209</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E15" s="1">
+        <v>44209</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -741,7 +804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -752,7 +815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -763,7 +826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -774,7 +837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -785,7 +848,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -796,7 +859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -807,7 +870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -818,7 +881,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -829,7 +892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -840,7 +903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -851,7 +914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -862,7 +925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -873,7 +936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -884,7 +947,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>

--- a/requirements/BugTracking.xlsx
+++ b/requirements/BugTracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nikita\Git\EasyBudget\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D4E4B4-D3F9-4C32-92D7-BE202CAF10DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5757A0D1-C180-4EF6-88DB-141241D73CF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07F58553-A4A0-4277-86D4-14AF11B81E43}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="34">
   <si>
     <t>Bug</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>FinDirector can not change execution deadline date field after approving</t>
+  </si>
+  <si>
+    <t>Wrong approveable items in list</t>
+  </si>
+  <si>
+    <t>Changes in item don't affect on list</t>
   </si>
 </sst>
 </file>
@@ -483,7 +489,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +583,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -682,7 +688,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -699,7 +705,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -716,7 +722,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -784,7 +790,7 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -797,22 +803,34 @@
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="E18" s="1">
+        <v>44209</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="E19" s="1">
+        <v>44209</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">

--- a/requirements/BugTracking.xlsx
+++ b/requirements/BugTracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nikita\Git\EasyBudget\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5757A0D1-C180-4EF6-88DB-141241D73CF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250FD4E0-D4DF-4E8E-8C23-342B0DCBCCEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07F58553-A4A0-4277-86D4-14AF11B81E43}"/>
   </bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -756,7 +756,7 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
